--- a/app接口/甬上.xlsx
+++ b/app接口/甬上.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\notes\app接口\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB0733C-B904-4404-AAF0-F74607E0A05B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44CC0FB6-1F15-4452-B8DC-0EC443F780FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="板块刷新页" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="28">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,68 +80,64 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>4.0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apptest.nbwbw.com/home/hotTop和https://apptest.nbwbw.com/user/getArticlePostList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>page_size=5&amp;page=1&amp;user_id=379897&amp;version=4.0.15&amp;content_edition=1&amp;token=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apptest.nbwbw.com/home/hotTop为推荐，另外一个链接为板块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://apptest.nbwbw.com/article_post/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mozilla/5.0 (Linux; Android 6.0.1; Redmi 4 Build/MMB29M; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/57.0.2987.132 Mobile Safari/537.36 yonglian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id=164580&amp;from_type=1&amp;version=3.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id为文章id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id：推荐可没有，10151-甬事，379897-拍客，315692-青春宁波，25594-国企，7-相亲，8-宝贝，11905-旅游，15-小记者，5-女性，56899-淘课，10184….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>User-Agent</t>
-  </si>
-  <si>
-    <t>4.0.15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apptest.nbwbw.com/home/hotTop和https://apptest.nbwbw.com/user/getArticlePostList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>page_size=5&amp;page=1&amp;user_id=379897&amp;version=4.0.15&amp;content_edition=1&amp;token=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apptest.nbwbw.com/home/hotTop为推荐，另外一个链接为板块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://apptest.nbwbw.com/article_post/info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Mozilla/5.0 (Linux; Android 6.0.1; Redmi 4 Build/MMB29M; wv) AppleWebKit/537.36 (KHTML, like Gecko) Version/4.0 Chrome/57.0.2987.132 Mobile Safari/537.36 yonglian</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>okhttp/4.9.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Content-Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/x-www-form-urlencoded; charset=utf-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>application/x-www-form-urlencoded; charset=UTF-8</t>
-  </si>
-  <si>
-    <t>id=164580&amp;from_type=1&amp;version=3.1.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id为文章id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>user_id：推荐可没有，10151-甬事，379897-拍客，315692-青春宁波，25594-国企，7-相亲，8-宝贝，11905-旅游，15-小记者，5-女性，56899-淘课，10184….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>User-Agent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>okhttp/4.9.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content-Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>application/x-www-form-urlencoded; charset=utf-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -226,7 +222,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,6 +234,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -544,8 +543,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,54 +607,54 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="11">
+        <v>44385</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="10">
-        <v>44385</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="8"/>
       <c r="J3" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -682,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57299981-03B7-42D3-9D2D-6F3A1E61CA80}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -753,36 +752,36 @@
         <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>44385</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="55.2" x14ac:dyDescent="0.25">
       <c r="J3" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
